--- a/Core/Articles.xlsx
+++ b/Core/Articles.xlsx
@@ -16,12 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Forward and Reverse Proxies</t>
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=4NB0NDtOwIQ</t>
+  </si>
+  <si>
+    <t>Weakly | Strongly | Statically | Dynamically</t>
+  </si>
+  <si>
+    <t>https://www.educative.io/answers/statically-v-dynamically-v-strongly-v-weakly-typed-languages</t>
   </si>
 </sst>
 </file>
@@ -29,12 +35,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -46,20 +52,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -81,6 +73,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -88,9 +88,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,16 +126,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -127,36 +142,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -172,23 +172,22 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,13 +202,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -221,61 +334,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -287,103 +382,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -421,17 +420,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -457,21 +445,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -488,6 +461,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -499,145 +498,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -999,13 +998,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="35.4" customWidth="1"/>
     <col min="2" max="2" width="86.2" customWidth="1"/>
@@ -1019,9 +1018,18 @@
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.youtube.com/watch?v=4NB0NDtOwIQ"/>
+    <hyperlink ref="B3" r:id="rId2" display="https://www.educative.io/answers/statically-v-dynamically-v-strongly-v-weakly-typed-languages"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Core/Articles.xlsx
+++ b/Core/Articles.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -37,8 +35,8 @@
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -52,6 +50,13 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -82,13 +87,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -97,24 +95,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -126,9 +109,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -141,57 +190,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -202,37 +200,139 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -244,67 +344,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -322,67 +362,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -393,6 +391,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -420,26 +433,37 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -461,32 +485,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -498,142 +496,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1001,7 +999,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1035,38 +1033,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
 </file>